--- a/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200319.xlsx
+++ b/data/unchecked/manual_collect/china/fujian/fujianCaseStatistics_20200319.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chenx\Desktop\test\COVID-19\data\unchecked\manual_collect\china\fujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9460D1-4199-4725-848A-9CF416449758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3AAE5E5-C415-4E4A-A975-C90907E557B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10307,8 +10307,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="178" formatCode="yyyy/m/d\ h:mm:ss;@"/>
-    <numFmt numFmtId="179" formatCode="yyyy/m/d\ hh:mm"/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d\ h:mm:ss;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d\ hh:mm"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -10462,14 +10462,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -10768,12 +10768,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AN79"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K84" sqref="K84"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.87890625" defaultRowHeight="15" customHeight="1"/>
@@ -10953,7 +10952,9 @@
       </c>
       <c r="G2" s="15"/>
       <c r="H2" s="15"/>
-      <c r="I2" s="20"/>
+      <c r="I2" s="20">
+        <v>3</v>
+      </c>
       <c r="J2" s="20"/>
       <c r="K2" s="20"/>
       <c r="L2" s="20"/>
@@ -11076,7 +11077,7 @@
       <c r="AM3" s="24"/>
       <c r="AN3" s="24"/>
     </row>
-    <row r="4" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="4" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A4" s="18">
         <v>3</v>
       </c>
@@ -11150,7 +11151,7 @@
       <c r="AM4" s="24"/>
       <c r="AN4" s="24"/>
     </row>
-    <row r="5" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="5" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="18">
         <v>4</v>
       </c>
@@ -11224,7 +11225,7 @@
       <c r="AM5" s="24"/>
       <c r="AN5" s="24"/>
     </row>
-    <row r="6" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="6" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="18">
         <v>5</v>
       </c>
@@ -11298,7 +11299,7 @@
       <c r="AM6" s="24"/>
       <c r="AN6" s="24"/>
     </row>
-    <row r="7" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="7" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A7" s="18">
         <v>6</v>
       </c>
@@ -11372,7 +11373,7 @@
       <c r="AM7" s="24"/>
       <c r="AN7" s="24"/>
     </row>
-    <row r="8" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="8" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A8" s="18">
         <v>7</v>
       </c>
@@ -11446,7 +11447,7 @@
       <c r="AM8" s="24"/>
       <c r="AN8" s="24"/>
     </row>
-    <row r="9" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="9" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="18">
         <v>8</v>
       </c>
@@ -11592,7 +11593,7 @@
       <c r="AM10" s="24"/>
       <c r="AN10" s="24"/>
     </row>
-    <row r="11" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="11" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="18">
         <v>10</v>
       </c>
@@ -11666,7 +11667,7 @@
       <c r="AM11" s="24"/>
       <c r="AN11" s="24"/>
     </row>
-    <row r="12" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="12" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="18">
         <v>11</v>
       </c>
@@ -11740,7 +11741,7 @@
       <c r="AM12" s="24"/>
       <c r="AN12" s="24"/>
     </row>
-    <row r="13" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="13" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="18">
         <v>12</v>
       </c>
@@ -11814,7 +11815,7 @@
       <c r="AM13" s="24"/>
       <c r="AN13" s="24"/>
     </row>
-    <row r="14" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="14" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="18">
         <v>13</v>
       </c>
@@ -11888,7 +11889,7 @@
       <c r="AM14" s="24"/>
       <c r="AN14" s="24"/>
     </row>
-    <row r="15" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="15" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="18">
         <v>14</v>
       </c>
@@ -11962,7 +11963,7 @@
       <c r="AM15" s="24"/>
       <c r="AN15" s="24"/>
     </row>
-    <row r="16" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="16" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="18">
         <v>15</v>
       </c>
@@ -12036,7 +12037,7 @@
       <c r="AM16" s="24"/>
       <c r="AN16" s="24"/>
     </row>
-    <row r="17" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="17" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="18">
         <v>16</v>
       </c>
@@ -12110,7 +12111,7 @@
       <c r="AM17" s="24"/>
       <c r="AN17" s="24"/>
     </row>
-    <row r="18" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="18" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="18">
         <v>17</v>
       </c>
@@ -12256,7 +12257,7 @@
       <c r="AM19" s="24"/>
       <c r="AN19" s="24"/>
     </row>
-    <row r="20" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="20" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="18">
         <v>19</v>
       </c>
@@ -12330,7 +12331,7 @@
       <c r="AM20" s="24"/>
       <c r="AN20" s="24"/>
     </row>
-    <row r="21" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="21" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="18">
         <v>20</v>
       </c>
@@ -12404,7 +12405,7 @@
       <c r="AM21" s="24"/>
       <c r="AN21" s="24"/>
     </row>
-    <row r="22" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="22" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="18">
         <v>21</v>
       </c>
@@ -12478,7 +12479,7 @@
       <c r="AM22" s="24"/>
       <c r="AN22" s="24"/>
     </row>
-    <row r="23" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="23" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="18">
         <v>22</v>
       </c>
@@ -12552,7 +12553,7 @@
       <c r="AM23" s="24"/>
       <c r="AN23" s="24"/>
     </row>
-    <row r="24" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="24" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="18">
         <v>23</v>
       </c>
@@ -12626,7 +12627,7 @@
       <c r="AM24" s="24"/>
       <c r="AN24" s="24"/>
     </row>
-    <row r="25" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="25" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="18">
         <v>24</v>
       </c>
@@ -12700,7 +12701,7 @@
       <c r="AM25" s="24"/>
       <c r="AN25" s="24"/>
     </row>
-    <row r="26" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="26" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="18">
         <v>25</v>
       </c>
@@ -12774,7 +12775,7 @@
       <c r="AM26" s="24"/>
       <c r="AN26" s="24"/>
     </row>
-    <row r="27" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="27" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="18">
         <v>26</v>
       </c>
@@ -12848,7 +12849,7 @@
       <c r="AM27" s="24"/>
       <c r="AN27" s="24"/>
     </row>
-    <row r="28" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="28" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="18">
         <v>27</v>
       </c>
@@ -12994,7 +12995,7 @@
       <c r="AM29" s="24"/>
       <c r="AN29" s="24"/>
     </row>
-    <row r="30" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="30" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="18">
         <v>29</v>
       </c>
@@ -13068,7 +13069,7 @@
       <c r="AM30" s="24"/>
       <c r="AN30" s="24"/>
     </row>
-    <row r="31" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="31" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="18">
         <v>30</v>
       </c>
@@ -13142,7 +13143,7 @@
       <c r="AM31" s="24"/>
       <c r="AN31" s="24"/>
     </row>
-    <row r="32" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="32" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="18">
         <v>31</v>
       </c>
@@ -13216,7 +13217,7 @@
       <c r="AM32" s="24"/>
       <c r="AN32" s="24"/>
     </row>
-    <row r="33" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="33" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="18">
         <v>32</v>
       </c>
@@ -13290,7 +13291,7 @@
       <c r="AM33" s="24"/>
       <c r="AN33" s="24"/>
     </row>
-    <row r="34" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="34" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="18">
         <v>33</v>
       </c>
@@ -13364,7 +13365,7 @@
       <c r="AM34" s="24"/>
       <c r="AN34" s="24"/>
     </row>
-    <row r="35" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="35" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A35" s="18">
         <v>34</v>
       </c>
@@ -13438,7 +13439,7 @@
       <c r="AM35" s="24"/>
       <c r="AN35" s="24"/>
     </row>
-    <row r="36" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="36" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A36" s="18">
         <v>35</v>
       </c>
@@ -13512,7 +13513,7 @@
       <c r="AM36" s="24"/>
       <c r="AN36" s="24"/>
     </row>
-    <row r="37" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="37" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A37" s="18">
         <v>36</v>
       </c>
@@ -13586,7 +13587,7 @@
       <c r="AM37" s="24"/>
       <c r="AN37" s="24"/>
     </row>
-    <row r="38" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="38" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A38" s="18">
         <v>37</v>
       </c>
@@ -13660,7 +13661,7 @@
       <c r="AM38" s="24"/>
       <c r="AN38" s="24"/>
     </row>
-    <row r="39" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="39" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="18">
         <v>38</v>
       </c>
@@ -13808,7 +13809,7 @@
       <c r="AM40" s="24"/>
       <c r="AN40" s="24"/>
     </row>
-    <row r="41" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="41" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="18">
         <v>40</v>
       </c>
@@ -13882,7 +13883,7 @@
       <c r="AM41" s="24"/>
       <c r="AN41" s="24"/>
     </row>
-    <row r="42" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="42" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="18">
         <v>41</v>
       </c>
@@ -13956,7 +13957,7 @@
       <c r="AM42" s="24"/>
       <c r="AN42" s="24"/>
     </row>
-    <row r="43" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="43" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="18">
         <v>42</v>
       </c>
@@ -14032,7 +14033,7 @@
       <c r="AM43" s="24"/>
       <c r="AN43" s="24"/>
     </row>
-    <row r="44" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="44" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="18">
         <v>43</v>
       </c>
@@ -14106,7 +14107,7 @@
       <c r="AM44" s="24"/>
       <c r="AN44" s="24"/>
     </row>
-    <row r="45" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="45" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A45" s="18">
         <v>44</v>
       </c>
@@ -14180,7 +14181,7 @@
       <c r="AM45" s="24"/>
       <c r="AN45" s="24"/>
     </row>
-    <row r="46" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="46" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A46" s="18">
         <v>45</v>
       </c>
@@ -14254,7 +14255,7 @@
       <c r="AM46" s="24"/>
       <c r="AN46" s="24"/>
     </row>
-    <row r="47" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="47" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A47" s="18">
         <v>46</v>
       </c>
@@ -14328,7 +14329,7 @@
       <c r="AM47" s="24"/>
       <c r="AN47" s="24"/>
     </row>
-    <row r="48" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="48" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A48" s="18">
         <v>47</v>
       </c>
@@ -14402,7 +14403,7 @@
       <c r="AM48" s="24"/>
       <c r="AN48" s="24"/>
     </row>
-    <row r="49" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="49" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A49" s="18">
         <v>48</v>
       </c>
@@ -14476,7 +14477,7 @@
       <c r="AM49" s="24"/>
       <c r="AN49" s="24"/>
     </row>
-    <row r="50" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="50" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A50" s="18">
         <v>49</v>
       </c>
@@ -14550,7 +14551,7 @@
       <c r="AM50" s="24"/>
       <c r="AN50" s="24"/>
     </row>
-    <row r="51" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="51" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="18">
         <v>50</v>
       </c>
@@ -14696,7 +14697,7 @@
       <c r="AM52" s="24"/>
       <c r="AN52" s="24"/>
     </row>
-    <row r="53" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="53" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="18">
         <v>52</v>
       </c>
@@ -14770,7 +14771,7 @@
       <c r="AM53" s="24"/>
       <c r="AN53" s="24"/>
     </row>
-    <row r="54" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="54" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="18">
         <v>53</v>
       </c>
@@ -14844,7 +14845,7 @@
       <c r="AM54" s="24"/>
       <c r="AN54" s="24"/>
     </row>
-    <row r="55" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="55" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="18">
         <v>54</v>
       </c>
@@ -14918,7 +14919,7 @@
       <c r="AM55" s="24"/>
       <c r="AN55" s="24"/>
     </row>
-    <row r="56" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="56" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A56" s="18">
         <v>55</v>
       </c>
@@ -14992,7 +14993,7 @@
       <c r="AM56" s="24"/>
       <c r="AN56" s="24"/>
     </row>
-    <row r="57" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="57" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A57" s="18">
         <v>56</v>
       </c>
@@ -15066,7 +15067,7 @@
       <c r="AM57" s="24"/>
       <c r="AN57" s="24"/>
     </row>
-    <row r="58" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="58" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A58" s="18">
         <v>57</v>
       </c>
@@ -15212,7 +15213,7 @@
       <c r="AM59" s="24"/>
       <c r="AN59" s="24"/>
     </row>
-    <row r="60" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="60" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A60" s="18">
         <v>59</v>
       </c>
@@ -15286,7 +15287,7 @@
       <c r="AM60" s="24"/>
       <c r="AN60" s="24"/>
     </row>
-    <row r="61" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="61" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A61" s="18">
         <v>60</v>
       </c>
@@ -15360,7 +15361,7 @@
       <c r="AM61" s="24"/>
       <c r="AN61" s="24"/>
     </row>
-    <row r="62" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="62" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A62" s="18">
         <v>61</v>
       </c>
@@ -15434,7 +15435,7 @@
       <c r="AM62" s="24"/>
       <c r="AN62" s="24"/>
     </row>
-    <row r="63" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="63" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A63" s="18">
         <v>62</v>
       </c>
@@ -15508,7 +15509,7 @@
       <c r="AM63" s="24"/>
       <c r="AN63" s="24"/>
     </row>
-    <row r="64" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="64" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A64" s="18">
         <v>63</v>
       </c>
@@ -15582,7 +15583,7 @@
       <c r="AM64" s="24"/>
       <c r="AN64" s="24"/>
     </row>
-    <row r="65" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="65" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A65" s="18">
         <v>64</v>
       </c>
@@ -15728,7 +15729,7 @@
       <c r="AM66" s="24"/>
       <c r="AN66" s="24"/>
     </row>
-    <row r="67" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="67" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A67" s="18">
         <v>66</v>
       </c>
@@ -15802,7 +15803,7 @@
       <c r="AM67" s="24"/>
       <c r="AN67" s="24"/>
     </row>
-    <row r="68" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="68" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A68" s="18">
         <v>67</v>
       </c>
@@ -15876,7 +15877,7 @@
       <c r="AM68" s="24"/>
       <c r="AN68" s="24"/>
     </row>
-    <row r="69" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="69" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A69" s="18">
         <v>68</v>
       </c>
@@ -15950,7 +15951,7 @@
       <c r="AM69" s="24"/>
       <c r="AN69" s="24"/>
     </row>
-    <row r="70" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="70" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A70" s="18">
         <v>69</v>
       </c>
@@ -16024,7 +16025,7 @@
       <c r="AM70" s="24"/>
       <c r="AN70" s="24"/>
     </row>
-    <row r="71" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="71" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A71" s="18">
         <v>70</v>
       </c>
@@ -16098,7 +16099,7 @@
       <c r="AM71" s="24"/>
       <c r="AN71" s="24"/>
     </row>
-    <row r="72" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="72" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A72" s="18">
         <v>71</v>
       </c>
@@ -16244,7 +16245,7 @@
       <c r="AM73" s="24"/>
       <c r="AN73" s="24"/>
     </row>
-    <row r="74" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="74" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A74" s="18">
         <v>73</v>
       </c>
@@ -16318,7 +16319,7 @@
       <c r="AM74" s="24"/>
       <c r="AN74" s="24"/>
     </row>
-    <row r="75" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="75" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A75" s="18">
         <v>74</v>
       </c>
@@ -16464,7 +16465,7 @@
       <c r="AM76" s="24"/>
       <c r="AN76" s="24"/>
     </row>
-    <row r="77" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="77" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A77" s="18">
         <v>76</v>
       </c>
@@ -16538,7 +16539,7 @@
       <c r="AM77" s="24"/>
       <c r="AN77" s="24"/>
     </row>
-    <row r="78" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="78" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A78" s="18">
         <v>77</v>
       </c>
@@ -16612,7 +16613,7 @@
       <c r="AM78" s="24"/>
       <c r="AN78" s="24"/>
     </row>
-    <row r="79" spans="1:40" s="12" customFormat="1" ht="15" hidden="1" customHeight="1">
+    <row r="79" spans="1:40" s="12" customFormat="1" ht="15" customHeight="1">
       <c r="A79" s="18">
         <v>78</v>
       </c>
@@ -16687,14 +16688,6 @@
       <c r="AN79" s="24"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN79" xr:uid="{04AA5D5E-D253-4A94-82E5-CF100A5020BD}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="城市级"/>
-        <filter val="省级"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H10 H12:H45 H48:H66 H69:H76 H80:H1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
